--- a/biology/Botanique/Reseda_luteola/Reseda_luteola.xlsx
+++ b/biology/Botanique/Reseda_luteola/Reseda_luteola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réséda des teinturiers ou réséda jaunâtre (Reseda luteola L.) est une plante herbacée bisannuelle de la famille des Résédacées, assez commune en Europe occidentale et méridionale, qui fut cultivée autrefois comme plante tinctoriale. Toute la plante contient des matières colorantes de la famille des flavonoïdes (couleur jaune).
-Il est parfois appelé la gaude, grand réséda[1], herbe à jaunir, herbe jaune ou mignonette jaunâtre.
+Il est parfois appelé la gaude, grand réséda, herbe à jaunir, herbe jaune ou mignonette jaunâtre.
 </t>
         </is>
       </c>
@@ -512,14 +524,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante bisannuelle, persistant parfois plusieurs années, de 0,50 à 1,50 m de haut (ou plus).
 Racine de type pivotant.
 Feuilles allongées entières.
 Fleurs jaune verdâtre, à trois pétales, groupées en grappes allongées.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Reseda_luteola</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reseda_luteola</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-octobre
 Inflorescence : racème simple
@@ -537,38 +586,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Reseda_luteola</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Reseda_luteola</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est originaire du pourtour du bassin méditerranéen et d'Asie occidentale. On la trouve notamment en Égypte et en Libye, dans la péninsule Ibérique, l'Italie et les Balkans, ainsi qu'au Moyen-Orient de la Turquie à l'Iran, ainsi qu'au Pakistan.
-Autrefois cultivée en France (Languedoc-Roussillon, alentours de Paris, nord des Hauts-de-Seine), en Allemagne et en Grande-Bretagne, elle s'y est parfois naturalisée, et il en reste quelques pieds çà et là ; mais ils restent rares.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -590,14 +607,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gaude contient un principe colorant qui est le lutéolol (ou lutéoline) isolé pour la première fois par le chimiste français Chevreul. Elle produit une teinte jaune  très solide, considérée comme la meilleure des teintures jaunes naturelles. Toute la partie aérienne est utilisée à cet effet (tiges, feuilles notamment).
-Au Moyen Âge, les enlumineurs ont utilisé la gaude, quelquefois désignée sous son nom italien d'arzica, suivant Cennino Cennini[2].
-Cette plante porte aussi le nom d'« herbe des Juifs » car c'est l'une des plantes utilisée, du XIIIe au XVIIIe siècle, par les Juifs du Comtat Venaissin (qui était alors un domaine pontifical) pour teindre en jaune les chapeaux qu'ils étaient obligés de porter comme signe distinctif.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est originaire du pourtour du bassin méditerranéen et d'Asie occidentale. On la trouve notamment en Égypte et en Libye, dans la péninsule Ibérique, l'Italie et les Balkans, ainsi qu'au Moyen-Orient de la Turquie à l'Iran, ainsi qu'au Pakistan.
+Autrefois cultivée en France (Languedoc-Roussillon, alentours de Paris, nord des Hauts-de-Seine), en Allemagne et en Grande-Bretagne, elle s'y est parfois naturalisée, et il en reste quelques pieds çà et là ; mais ils restent rares.
 </t>
         </is>
       </c>
@@ -623,10 +641,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gaude contient un principe colorant qui est le lutéolol (ou lutéoline) isolé pour la première fois par le chimiste français Chevreul. Elle produit une teinte jaune  très solide, considérée comme la meilleure des teintures jaunes naturelles. Toute la partie aérienne est utilisée à cet effet (tiges, feuilles notamment).
+Au Moyen Âge, les enlumineurs ont utilisé la gaude, quelquefois désignée sous son nom italien d'arzica, suivant Cennino Cennini.
+Cette plante porte aussi le nom d'« herbe des Juifs » car c'est l'une des plantes utilisée, du XIIIe au XVIIIe siècle, par les Juifs du Comtat Venaissin (qui était alors un domaine pontifical) pour teindre en jaune les chapeaux qu'ils étaient obligés de porter comme signe distinctif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Reseda_luteola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reseda_luteola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Autre signification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle également "Gaudes" (ou "gaudes de maïs") — toujours au pluriel — une bouillie faite avec de la farine de maïs torréfié, ce qui donne à cette farine la couleur brune à jaune du genêt d'Espagne (qu'on appelait aussi anciennement "Gaude"). En Franche-Comté, on la cuit avec du lait, et ajout de beurre et de sucre. Elle est utilisée aussi par les pêcheurs pour appâter les poissons.
 </t>
